--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2020-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04091E6B-61F5-408C-8456-F235B577B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02485D9-DADE-481C-A691-C89E2103629B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>SEMANA</t>
   </si>
@@ -73,13 +73,22 @@
   </si>
   <si>
     <t>Exposición del proyecto - primera parte</t>
+  </si>
+  <si>
+    <t>Practica 1</t>
+  </si>
+  <si>
+    <t>Practica 2</t>
+  </si>
+  <si>
+    <t>No hay clases (feriado)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +107,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,6 +224,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,7 +518,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +591,9 @@
         <v>44165</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -581,7 +617,9 @@
       <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
@@ -591,7 +629,9 @@
         <v>44186</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -601,7 +641,9 @@
         <v>44193</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -611,7 +653,9 @@
         <v>44200</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2020-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02485D9-DADE-481C-A691-C89E2103629B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822991AB-1F38-4D7D-ACDF-6496890F02BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CAlendario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>SEMANA</t>
   </si>
@@ -75,13 +75,14 @@
     <t>Exposición del proyecto - primera parte</t>
   </si>
   <si>
-    <t>Practica 1</t>
-  </si>
-  <si>
-    <t>Practica 2</t>
-  </si>
-  <si>
     <t>No hay clases (feriado)</t>
+  </si>
+  <si>
+    <t>JU 17.12 1ra. Practica (Lenguaje SQL)</t>
+  </si>
+  <si>
+    <t>JU 07.01.21 2da Pract. (Casos de USO y Documentación de Casos de USO)
+VI 08.01.21 Entrega y Exposición del proyecto - primera parte</t>
   </si>
 </sst>
 </file>
@@ -181,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -517,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +531,7 @@
     <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="61.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.5703125" style="1" customWidth="1"/>
     <col min="6" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -591,9 +595,7 @@
         <v>44165</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
@@ -630,7 +632,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,10 +644,10 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -653,8 +655,8 @@
         <v>44200</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="16" t="s">
-        <v>14</v>
+      <c r="E11" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2020-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822991AB-1F38-4D7D-ACDF-6496890F02BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0445ED64-EA82-4D01-9F06-7D1ABA7E0569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2020-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0445ED64-EA82-4D01-9F06-7D1ABA7E0569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C528FAE-3F93-4FFA-BB7B-3F1F38D4D996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>SEMANA</t>
   </si>
@@ -68,10 +68,6 @@
     <t>Practica calificada 3</t>
   </si>
   <si>
-    <t>Practica calificada 3
-Exposición del proyecto - segunda parte</t>
-  </si>
-  <si>
     <t>Exposición del proyecto - primera parte</t>
   </si>
   <si>
@@ -83,6 +79,13 @@
   <si>
     <t>JU 07.01.21 2da Pract. (Casos de USO y Documentación de Casos de USO)
 VI 08.01.21 Entrega y Exposición del proyecto - primera parte</t>
+  </si>
+  <si>
+    <t>Practica calificada 4
+Exposición del proyecto - segunda parte</t>
+  </si>
+  <si>
+    <t>Practica 3: Login, un proceso de su proyecto y documentación del proyecto.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +620,10 @@
         <v>44179</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,7 +635,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +647,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +659,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +704,9 @@
         <v>44228</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
@@ -711,7 +716,7 @@
         <v>44235</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10"/>
     </row>
